--- a/K_inputs.xlsx
+++ b/K_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/uctpjer_ucl_ac_uk/Documents/Global_dev/gRIMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive - University College London\Global_dev\gRIMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -492,10 +492,10 @@
     <t>K</t>
   </si>
   <si>
-    <t>dK_rp20</t>
-  </si>
-  <si>
     <t>20dKtot</t>
+  </si>
+  <si>
+    <t>dKtot_rp20</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,13 +869,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
         <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
